--- a/BackLog Assistlist.xlsx
+++ b/BackLog Assistlist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="345">
   <si>
     <t>Concept Art</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Npc's</t>
   </si>
   <si>
-    <t>Weapon/Tools</t>
-  </si>
-  <si>
     <t>Buildings</t>
   </si>
   <si>
@@ -960,6 +957,105 @@
   </si>
   <si>
     <t>4UW_P_PS</t>
+  </si>
+  <si>
+    <t>Full Heart</t>
+  </si>
+  <si>
+    <t>Half Heart</t>
+  </si>
+  <si>
+    <t>Adem Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Over </t>
+  </si>
+  <si>
+    <t>Intro Comic</t>
+  </si>
+  <si>
+    <t>Madeliefjes Schild</t>
+  </si>
+  <si>
+    <t>Pick Up</t>
+  </si>
+  <si>
+    <t>Mieren Hit</t>
+  </si>
+  <si>
+    <t>Shield Hit</t>
+  </si>
+  <si>
+    <t>Nina Jump</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Nina Lopen</t>
+  </si>
+  <si>
+    <t>Mier Lopen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mier Lopen</t>
+  </si>
+  <si>
+    <t>Nina Rennen</t>
+  </si>
+  <si>
+    <t>Nina springer</t>
+  </si>
+  <si>
+    <t>Nina aanvallen</t>
+  </si>
+  <si>
+    <t>Nina Schild</t>
+  </si>
+  <si>
+    <t>Nina adem Inhouden</t>
+  </si>
+  <si>
+    <t>Background Music</t>
+  </si>
+  <si>
+    <t>Mier aanvallen</t>
+  </si>
+  <si>
+    <t>Nina Gehit</t>
+  </si>
+  <si>
+    <t>Suikerkklonktje</t>
+  </si>
+  <si>
+    <t>Collectlebles</t>
+  </si>
+  <si>
+    <t>Mier gehit</t>
+  </si>
+  <si>
+    <t>Blaadjes op water</t>
+  </si>
+  <si>
+    <t>Gif</t>
+  </si>
+  <si>
+    <t>Libelle Sounds</t>
+  </si>
+  <si>
+    <t>Mier Sounds</t>
+  </si>
+  <si>
+    <t>Mina Ray Sounds</t>
+  </si>
+  <si>
+    <t>jesse</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1410,17 +1506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J289"/>
+  <dimension ref="A1:J331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M198" sqref="M198"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F307" sqref="F307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
@@ -1432,13 +1528,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1450,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1480,7 +1576,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1517,7 +1613,7 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1529,7 +1625,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1554,7 +1650,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1569,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -1600,7 +1696,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
@@ -1616,16 +1712,16 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1636,16 +1732,16 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -1656,16 +1752,16 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G16" s="1">
         <v>4</v>
@@ -1676,16 +1772,16 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1696,16 +1792,16 @@
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1716,16 +1812,16 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -1736,16 +1832,16 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -1756,16 +1852,16 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1776,16 +1872,16 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -1796,16 +1892,16 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -1816,16 +1912,16 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1836,16 +1932,16 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1856,16 +1952,16 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -1876,16 +1972,16 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
@@ -1896,16 +1992,16 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -1916,16 +2012,16 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -1936,16 +2032,16 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
@@ -1956,16 +2052,16 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -1976,16 +2072,16 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -1996,13 +2092,13 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G33" s="1">
         <v>4</v>
@@ -2013,13 +2109,13 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2030,13 +2126,13 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2047,16 +2143,16 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G36" s="1">
         <v>5</v>
@@ -2067,16 +2163,16 @@
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2087,16 +2183,16 @@
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2107,16 +2203,16 @@
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2127,16 +2223,16 @@
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G40" s="1">
         <v>2</v>
@@ -2147,16 +2243,16 @@
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
@@ -2167,16 +2263,16 @@
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -2187,16 +2283,16 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G43" s="1">
         <v>2</v>
@@ -2207,16 +2303,16 @@
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G44" s="1">
         <v>4</v>
@@ -2227,16 +2323,16 @@
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G45" s="1">
         <v>4</v>
@@ -2247,16 +2343,16 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G46" s="1">
         <v>2</v>
@@ -2267,16 +2363,16 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="E47" s="1">
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -2287,16 +2383,16 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G48" s="1">
         <v>3</v>
@@ -2307,16 +2403,16 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G49" s="1">
         <v>2</v>
@@ -2327,16 +2423,16 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G50" s="1">
         <v>2</v>
@@ -2347,16 +2443,16 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G51" s="1">
         <v>3</v>
@@ -2367,16 +2463,16 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -2411,278 +2507,383 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
+      <c r="C56" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
+      <c r="C57" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
+      <c r="C61" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
       <c r="J61" s="12"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
+      <c r="C62" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="B64" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G65" s="1">
-        <v>2</v>
-      </c>
-      <c r="H65" s="13">
-        <v>42261</v>
-      </c>
-      <c r="I65" s="13">
-        <v>42265</v>
-      </c>
-      <c r="J65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="13">
-        <v>42261</v>
-      </c>
-      <c r="I66" s="13">
-        <v>42265</v>
-      </c>
-      <c r="J66" s="12"/>
+      <c r="B66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G67" s="1">
-        <v>2</v>
-      </c>
-      <c r="H67" s="13">
-        <v>42261</v>
-      </c>
-      <c r="I67" s="13">
-        <v>42265</v>
-      </c>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G68" s="1">
-        <v>2</v>
-      </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="12"/>
+      <c r="A69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G70" s="1">
-        <v>3</v>
-      </c>
-      <c r="J70" s="12"/>
+      <c r="B70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E71" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G71" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H71" s="13">
+        <v>42261</v>
+      </c>
+      <c r="I71" s="13">
+        <v>42265</v>
       </c>
       <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
+      <c r="C72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13">
+        <v>42261</v>
+      </c>
+      <c r="I72" s="13">
+        <v>42265</v>
+      </c>
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
+      <c r="C73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2</v>
+      </c>
+      <c r="H73" s="13">
+        <v>42261</v>
+      </c>
+      <c r="I73" s="13">
+        <v>42265</v>
+      </c>
       <c r="J73" s="12"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
+      <c r="C74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
       <c r="J74" s="12"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
+      <c r="C75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
       <c r="J75" s="12"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
+      <c r="C76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
+      <c r="C77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2720,22 +2921,22 @@
       <c r="B84" s="12"/>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="J88" s="12"/>
@@ -2748,99 +2949,31 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
-      <c r="B91" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="12"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G92" s="1">
-        <v>5</v>
-      </c>
-      <c r="H92" s="13">
-        <v>42261</v>
-      </c>
-      <c r="I92" s="13">
-        <v>42265</v>
-      </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
-      <c r="B94" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E95" s="1">
-        <v>2</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G95" s="1">
-        <v>3</v>
-      </c>
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,11 +2990,11 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -2873,10 +3006,10 @@
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -2887,35 +3020,34 @@
       <c r="G98" s="1">
         <v>5</v>
       </c>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
+      <c r="H98" s="13">
+        <v>42261</v>
+      </c>
+      <c r="I98" s="13">
+        <v>42265</v>
+      </c>
       <c r="J98" s="12"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
-      <c r="C99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E99" s="1">
-        <v>2</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G99" s="1">
-        <v>4</v>
-      </c>
-      <c r="J99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
+      <c r="B100" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="D100" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -2924,155 +3056,132 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
-      <c r="B101" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+      <c r="J101" s="12"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
-      <c r="C102" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E102" s="1">
-        <v>3</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G102" s="1">
-        <v>2</v>
-      </c>
-      <c r="J102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E103" s="1">
-        <v>3</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1</v>
-      </c>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="12"/>
+      <c r="B103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="E104" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G104" s="1">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="12"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="E105" s="1">
         <v>2</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G105" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J105" s="12"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
-      <c r="C106" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G106" s="1">
-        <v>3</v>
-      </c>
-      <c r="J106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" s="1">
-        <v>2</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G107" s="1">
-        <v>2</v>
-      </c>
-      <c r="J107" s="12"/>
+      <c r="B107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E108" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G108" s="1">
         <v>2</v>
@@ -3083,16 +3192,16 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="E109" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
@@ -3105,19 +3214,19 @@
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E110" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" s="12"/>
     </row>
@@ -3125,19 +3234,19 @@
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="12"/>
     </row>
@@ -3145,19 +3254,19 @@
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="1" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="E112" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G112" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" s="12"/>
     </row>
@@ -3165,16 +3274,16 @@
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G113" s="1">
         <v>2</v>
@@ -3185,16 +3294,16 @@
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G114" s="1">
         <v>2</v>
@@ -3205,39 +3314,41 @@
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="E115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
       </c>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="12"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" s="12"/>
     </row>
@@ -3245,13 +3356,13 @@
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E117" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>290</v>
@@ -3265,16 +3376,16 @@
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E118" s="1">
         <v>3</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G118" s="1">
         <v>1</v>
@@ -3285,19 +3396,19 @@
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E119" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G119" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" s="12"/>
     </row>
@@ -3305,38 +3416,36 @@
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E120" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G120" s="1">
-        <v>4</v>
-      </c>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
+        <v>2</v>
+      </c>
       <c r="J120" s="12"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E121" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G121" s="1">
         <v>1</v>
@@ -3347,16 +3456,16 @@
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="1" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="E122" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
@@ -3367,19 +3476,19 @@
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E123" s="1">
         <v>3</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G123" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" s="12"/>
     </row>
@@ -3387,19 +3496,19 @@
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E124" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" s="12"/>
     </row>
@@ -3407,19 +3516,19 @@
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E125" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G125" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" s="12"/>
     </row>
@@ -3427,168 +3536,194 @@
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G126" s="1">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
       <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="1" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="E127" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G127" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
+      <c r="C128" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
       <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
+      <c r="C129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G129" s="1">
+        <v>3</v>
+      </c>
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
+      <c r="C130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G130" s="1">
+        <v>2</v>
+      </c>
+      <c r="J130" s="12"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
-      <c r="B131" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G131" s="1">
+        <v>2</v>
+      </c>
+      <c r="J131" s="12"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G132" s="1">
-        <v>5</v>
-      </c>
-      <c r="H132" s="13">
-        <v>42261</v>
-      </c>
-      <c r="I132" s="13">
-        <v>42265</v>
+        <v>3</v>
       </c>
       <c r="J132" s="12"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
+      <c r="C133" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G133" s="1">
+        <v>2</v>
+      </c>
+      <c r="J133" s="12"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="J134" s="12"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
-      <c r="B135" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="J135" s="12"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
-      <c r="C136" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E136" s="1">
-        <v>1</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G136" s="1">
-        <v>5</v>
-      </c>
-      <c r="J136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
+      <c r="B137" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
+      <c r="D137" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
@@ -3597,58 +3732,62 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
-      <c r="B138" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G138" s="1">
+        <v>5</v>
+      </c>
+      <c r="H138" s="13">
+        <v>42261</v>
+      </c>
+      <c r="I138" s="13">
+        <v>42265</v>
+      </c>
+      <c r="J138" s="12"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
-      <c r="C139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E139" s="1">
-        <v>2</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G139" s="1">
-        <v>5</v>
-      </c>
-      <c r="J139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
+      <c r="A140" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="6" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -3660,10 +3799,10 @@
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
@@ -3672,124 +3811,96 @@
         <v>289</v>
       </c>
       <c r="G142" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J142" s="12"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
-      <c r="C143" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G143" s="1">
-        <v>1</v>
-      </c>
-      <c r="J143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G144" s="1">
-        <v>1</v>
-      </c>
-      <c r="J144" s="12"/>
+      <c r="B144" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E145" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="G145" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J145" s="12"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
-      <c r="C146" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G146" s="1">
-        <v>1</v>
-      </c>
-      <c r="J146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G147" s="1">
-        <v>3</v>
-      </c>
-      <c r="J147" s="12"/>
+      <c r="B147" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E148" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
@@ -3799,167 +3910,181 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
+      <c r="C149" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1</v>
+      </c>
       <c r="J149" s="12"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
+      <c r="C150" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1</v>
+      </c>
       <c r="J150" s="12"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
+      <c r="C151" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1</v>
+      </c>
       <c r="J151" s="12"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
+      <c r="C152" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+      <c r="J152" s="12"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
-      <c r="B153" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G153" s="1">
+        <v>3</v>
+      </c>
+      <c r="J153" s="12"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="E154" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G154" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J154" s="12"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
-      <c r="C155" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E155" s="1">
-        <v>2</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G155" s="1">
-        <v>4</v>
-      </c>
       <c r="J155" s="12"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
-      <c r="B157" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="J157" s="12"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
-      <c r="C158" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E158" s="1">
-        <v>3</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G158" s="1">
-        <v>1</v>
-      </c>
-      <c r="J158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E159" s="1">
-        <v>3</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G159" s="1">
-        <v>1</v>
-      </c>
-      <c r="J159" s="12"/>
+      <c r="B159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="E160" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G160" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J160" s="12"/>
     </row>
@@ -3967,79 +4092,65 @@
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="E161" s="1">
         <v>2</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G161" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" s="12"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
-      <c r="C162" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E162" s="1">
-        <v>1</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G162" s="1">
-        <v>2</v>
-      </c>
-      <c r="J162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E163" s="1">
-        <v>2</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G163" s="1">
-        <v>2</v>
-      </c>
-      <c r="J163" s="12"/>
+      <c r="B163" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E164" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" s="12"/>
     </row>
@@ -4047,16 +4158,16 @@
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="E165" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -4067,16 +4178,16 @@
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E166" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G166" s="1">
         <v>2</v>
@@ -4087,19 +4198,19 @@
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E167" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G167" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J167" s="12"/>
     </row>
@@ -4107,19 +4218,19 @@
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="1" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="E168" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G168" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" s="12"/>
     </row>
@@ -4127,19 +4238,19 @@
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E169" s="1">
         <v>2</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J169" s="12"/>
     </row>
@@ -4147,19 +4258,19 @@
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J170" s="12"/>
     </row>
@@ -4167,19 +4278,19 @@
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="E171" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" s="12"/>
     </row>
@@ -4187,19 +4298,19 @@
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E172" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G172" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" s="12"/>
     </row>
@@ -4207,19 +4318,19 @@
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E173" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>290</v>
       </c>
       <c r="G173" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" s="12"/>
     </row>
@@ -4227,16 +4338,16 @@
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E174" s="1">
         <v>3</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -4247,19 +4358,19 @@
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G175" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J175" s="12"/>
     </row>
@@ -4267,19 +4378,19 @@
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E176" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G176" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J176" s="12"/>
     </row>
@@ -4287,16 +4398,16 @@
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E177" s="1">
         <v>3</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G177" s="1">
         <v>2</v>
@@ -4307,16 +4418,16 @@
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="1" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G178" s="1">
         <v>1</v>
@@ -4327,19 +4438,19 @@
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E179" s="1">
         <v>3</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G179" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J179" s="12"/>
     </row>
@@ -4347,19 +4458,19 @@
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E180" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G180" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" s="12"/>
     </row>
@@ -4367,19 +4478,19 @@
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E181" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G181" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" s="12"/>
     </row>
@@ -4387,19 +4498,19 @@
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G182" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J182" s="12"/>
     </row>
@@ -4407,16 +4518,16 @@
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="1" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="E183" s="1">
         <v>3</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G183" s="1">
         <v>2</v>
@@ -4426,31 +4537,121 @@
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
+      <c r="C184" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E184" s="1">
+        <v>2</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
       <c r="J184" s="12"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
+      <c r="C185" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E185" s="1">
+        <v>3</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G185" s="1">
+        <v>3</v>
+      </c>
       <c r="J185" s="12"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
+      <c r="C186" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E186" s="1">
+        <v>2</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G186" s="1">
+        <v>2</v>
+      </c>
       <c r="J186" s="12"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
+      <c r="C187" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E187" s="1">
+        <v>2</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G187" s="1">
+        <v>2</v>
+      </c>
       <c r="J187" s="12"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
+      <c r="C188" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G188" s="1">
+        <v>3</v>
+      </c>
       <c r="J188" s="12"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
+      <c r="C189" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E189" s="1">
+        <v>3</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G189" s="1">
+        <v>2</v>
+      </c>
       <c r="J189" s="12"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -4486,113 +4687,53 @@
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
-      <c r="B197" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C197" s="12"/>
-      <c r="D197" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="J197" s="12"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
-      <c r="C198" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E198" s="1">
-        <v>1</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G198" s="1">
-        <v>5</v>
-      </c>
       <c r="J198" s="12"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="J200" s="12"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
-      <c r="B201" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C201" s="12"/>
-      <c r="D201" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
+      <c r="B201" s="12"/>
+      <c r="J201" s="12"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
-      <c r="C202" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E202" s="1">
-        <v>1</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G202" s="1">
-        <v>5</v>
-      </c>
-      <c r="J202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
+      <c r="B203" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
+      <c r="D203" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -4601,58 +4742,56 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
-      <c r="B204" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C204" s="12"/>
-      <c r="D204" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G204" s="1">
+        <v>5</v>
+      </c>
+      <c r="J204" s="12"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
-      <c r="C205" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E205" s="1">
-        <v>3</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G205" s="1">
-        <v>4</v>
-      </c>
-      <c r="J205" s="12"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
+      <c r="A206" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C207" s="12"/>
       <c r="D207" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -4664,16 +4803,16 @@
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G208" s="1">
         <v>5</v>
@@ -4692,58 +4831,60 @@
       <c r="I209" s="12"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
-      <c r="I210" s="7"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210" s="12"/>
+      <c r="D210" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
-      <c r="B211" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C211" s="12"/>
-      <c r="D211" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="12"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E211" s="1">
+        <v>3</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G211" s="1">
+        <v>4</v>
+      </c>
+      <c r="J211" s="12"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
-      <c r="C212" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E212" s="1">
-        <v>1</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G212" s="1">
-        <v>5</v>
-      </c>
-      <c r="J212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
+      <c r="B213" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
+      <c r="D213" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
@@ -4752,64 +4893,57 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
-      <c r="B214" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C214" s="12"/>
-      <c r="D214" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E214" s="12"/>
-      <c r="F214" s="12"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G214" s="1">
+        <v>5</v>
+      </c>
+      <c r="J214" s="12"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
-      <c r="C215" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E215" s="1">
-        <v>3</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G215" s="1">
-        <v>2</v>
-      </c>
-      <c r="J215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E216" s="1">
-        <v>3</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G216" s="1">
-        <v>1</v>
-      </c>
-      <c r="J216" s="12"/>
+      <c r="A216" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
+      <c r="B217" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C217" s="12"/>
-      <c r="D217" s="12"/>
+      <c r="D217" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
@@ -4818,44 +4952,44 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
-      <c r="B218" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C218" s="12"/>
-      <c r="D218" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G218" s="1">
+        <v>5</v>
+      </c>
+      <c r="J218" s="12"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
-      <c r="C219" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E219" s="1">
-        <v>2</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G219" s="1">
-        <v>5</v>
-      </c>
-      <c r="J219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
+      <c r="B220" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
+      <c r="D220" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
@@ -4863,43 +4997,65 @@
       <c r="I220" s="12"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="9"/>
-      <c r="I221" s="9"/>
+      <c r="A221" s="12"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E221" s="1">
+        <v>3</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G221" s="1">
+        <v>2</v>
+      </c>
+      <c r="J221" s="12"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
-      <c r="B222" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C222" s="12"/>
-      <c r="D222" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E222" s="1">
+        <v>3</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G222" s="1">
+        <v>1</v>
+      </c>
+      <c r="J222" s="12"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
-      <c r="J223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
+      <c r="B224" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
+      <c r="D224" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
@@ -4908,43 +5064,56 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
-      <c r="B225" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C225" s="12"/>
-      <c r="D225" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E225" s="1">
+        <v>2</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G225" s="1">
+        <v>5</v>
+      </c>
+      <c r="J225" s="12"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
-      <c r="J226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
+      <c r="A227" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C228" s="12"/>
       <c r="D228" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
@@ -4955,247 +5124,150 @@
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
+      <c r="C229" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="J229" s="12"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
-      <c r="B231" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C231" s="12"/>
-      <c r="D231" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J231" s="12"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
+      <c r="C232" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="J232" s="12"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="12"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
+      <c r="C233" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J233" s="12"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J234" s="12"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
-      <c r="B235" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C235" s="12"/>
-      <c r="D235" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J235" s="12"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
-      <c r="C236" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E236" s="1">
-        <v>1</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J236" s="12"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
-      <c r="C237" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E237" s="1">
-        <v>1</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="J237" s="12"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E238" s="1">
-        <v>1</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>94</v>
+        <v>329</v>
       </c>
       <c r="J238" s="12"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
-      <c r="C239" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E239" s="1">
-        <v>2</v>
-      </c>
-      <c r="J239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E240" s="1">
-        <v>3</v>
-      </c>
-      <c r="J240" s="12"/>
+      <c r="B240" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="12"/>
+      <c r="D240" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E241" s="1">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="J241" s="12"/>
     </row>
-    <row r="242" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E242" s="1">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="J242" s="12"/>
     </row>
-    <row r="243" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E243" s="1">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="J243" s="12"/>
     </row>
-    <row r="244" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E244" s="1">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="J244" s="12"/>
     </row>
-    <row r="245" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E245" s="1">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="J245" s="12"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="12"/>
-      <c r="G246" s="12"/>
-      <c r="H246" s="12"/>
-      <c r="I246" s="12"/>
+      <c r="J246" s="12"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
-      <c r="B247" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="B247" s="12"/>
       <c r="C247" s="12"/>
-      <c r="D247" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="D247" s="12"/>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
       <c r="G247" s="12"/>
@@ -5204,32 +5276,24 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E248" s="1">
-        <v>2</v>
-      </c>
-      <c r="J248" s="12"/>
+      <c r="B248" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C248" s="12"/>
+      <c r="D248" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="12"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E249" s="1">
-        <v>1</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="J249" s="12"/>
     </row>
@@ -5237,16 +5301,7 @@
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E250" s="1">
-        <v>1</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="J250" s="12"/>
     </row>
@@ -5254,13 +5309,7 @@
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E251" s="1">
-        <v>2</v>
+        <v>337</v>
       </c>
       <c r="J251" s="12"/>
     </row>
@@ -5268,16 +5317,7 @@
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E252" s="1">
-        <v>1</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="J252" s="12"/>
     </row>
@@ -5285,53 +5325,25 @@
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E253" s="1">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="J253" s="12"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
-      <c r="C254" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E254" s="1">
-        <v>1</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="J254" s="12"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="12"/>
+      <c r="J255" s="12"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
-      <c r="B256" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="B256" s="12"/>
       <c r="C256" s="12"/>
-      <c r="D256" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="D256" s="12"/>
       <c r="E256" s="12"/>
       <c r="F256" s="12"/>
       <c r="G256" s="12"/>
@@ -5340,32 +5352,24 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
-      <c r="B257" s="12"/>
-      <c r="C257" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E257" s="1">
-        <v>1</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J257" s="12"/>
+      <c r="B257" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C257" s="12"/>
+      <c r="D257" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E258" s="1">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="J258" s="12"/>
     </row>
@@ -5373,16 +5377,7 @@
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E259" s="1">
-        <v>1</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>94</v>
+        <v>323</v>
       </c>
       <c r="J259" s="12"/>
     </row>
@@ -5390,129 +5385,83 @@
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E260" s="1">
-        <v>3</v>
+        <v>339</v>
       </c>
       <c r="J260" s="12"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
-      <c r="F261" s="12"/>
-      <c r="G261" s="12"/>
-      <c r="H261" s="12"/>
-      <c r="I261" s="12"/>
+      <c r="J261" s="12"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
-      <c r="B262" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C262" s="12"/>
-      <c r="D262" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E262" s="12"/>
-      <c r="F262" s="12"/>
-      <c r="G262" s="12"/>
-      <c r="H262" s="12"/>
-      <c r="I262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="J262" s="12"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
-      <c r="C263" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E263" s="1">
-        <v>1</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J263" s="12"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
-      <c r="C264" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E264" s="1">
-        <v>2</v>
-      </c>
       <c r="J264" s="12"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
-      <c r="C265" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E265" s="1">
-        <v>3</v>
-      </c>
-      <c r="J265" s="12"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="12"/>
+      <c r="I265" s="12"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E266" s="1">
-        <v>3</v>
-      </c>
-      <c r="J266" s="12"/>
+      <c r="A266" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E267" s="1">
-        <v>1</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J267" s="12"/>
+      <c r="B267" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C267" s="12"/>
+      <c r="D267" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
+      <c r="G267" s="12"/>
+      <c r="H267" s="12"/>
+      <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="E268" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="J268" s="12"/>
     </row>
@@ -5520,13 +5469,16 @@
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E269" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="J269" s="12"/>
     </row>
@@ -5534,13 +5486,16 @@
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="E270" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="J270" s="12"/>
     </row>
@@ -5548,96 +5503,120 @@
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="E271" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J271" s="12"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
-      <c r="E272" s="12"/>
-      <c r="F272" s="12"/>
-      <c r="G272" s="12"/>
-      <c r="H272" s="12"/>
-      <c r="I272" s="12"/>
+      <c r="C272" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E272" s="1">
+        <v>3</v>
+      </c>
+      <c r="J272" s="12"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B273" s="10"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10"/>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E273" s="1">
+        <v>3</v>
+      </c>
+      <c r="J273" s="12"/>
+    </row>
+    <row r="274" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
-      <c r="B274" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C274" s="12"/>
-      <c r="D274" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E274" s="12"/>
-      <c r="F274" s="12"/>
-      <c r="G274" s="12"/>
-      <c r="H274" s="12"/>
-      <c r="I274" s="12"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B274" s="12"/>
+      <c r="C274" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E274" s="1">
+        <v>2</v>
+      </c>
+      <c r="J274" s="12"/>
+    </row>
+    <row r="275" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
+      <c r="C275" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E275" s="1">
+        <v>2</v>
+      </c>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
-      <c r="F276" s="12"/>
-      <c r="G276" s="12"/>
-      <c r="H276" s="12"/>
-      <c r="I276" s="12"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C276" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E276" s="1">
+        <v>2</v>
+      </c>
+      <c r="J276" s="12"/>
+    </row>
+    <row r="277" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
-      <c r="B277" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C277" s="12"/>
-      <c r="D277" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E277" s="12"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="12"/>
-      <c r="H277" s="12"/>
-      <c r="I277" s="12"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E277" s="1">
+        <v>3</v>
+      </c>
+      <c r="J277" s="12"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
-      <c r="J278" s="12"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="12"/>
+      <c r="H278" s="12"/>
+      <c r="I278" s="12"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
-      <c r="B279" s="12"/>
+      <c r="B279" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="C279" s="12"/>
-      <c r="D279" s="12"/>
+      <c r="D279" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -5646,93 +5625,609 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
-      <c r="B280" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C280" s="12"/>
-      <c r="D280" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E280" s="12"/>
-      <c r="F280" s="12"/>
-      <c r="G280" s="12"/>
-      <c r="H280" s="12"/>
-      <c r="I280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E280" s="1">
+        <v>2</v>
+      </c>
+      <c r="J280" s="12"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
+      <c r="C281" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E281" s="1">
+        <v>1</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="J281" s="12"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="12"/>
-      <c r="E282" s="12"/>
-      <c r="F282" s="12"/>
-      <c r="G282" s="12"/>
-      <c r="H282" s="12"/>
-      <c r="I282" s="12"/>
+      <c r="C282" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J282" s="12"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
-      <c r="B283" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C283" s="12"/>
-      <c r="D283" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E283" s="12"/>
-      <c r="F283" s="12"/>
-      <c r="G283" s="12"/>
-      <c r="H283" s="12"/>
-      <c r="I283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E283" s="1">
+        <v>2</v>
+      </c>
+      <c r="J283" s="12"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
+      <c r="C284" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="J284" s="12"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
+      <c r="C285" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E285" s="1">
+        <v>2</v>
+      </c>
       <c r="J285" s="12"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
+      <c r="C286" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E286" s="1">
+        <v>1</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J286" s="12"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
-      <c r="J287" s="12"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="12"/>
+      <c r="I287" s="12"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
+      <c r="B288" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
+      <c r="D288" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
     </row>
-    <row r="289" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E289" s="1">
+        <v>1</v>
+      </c>
       <c r="F289" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J289" s="12"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E290" s="1">
+        <v>2</v>
+      </c>
+      <c r="J290" s="12"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="12"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E291" s="1">
+        <v>1</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J291" s="12"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E292" s="1">
+        <v>3</v>
+      </c>
+      <c r="J292" s="12"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="12"/>
+      <c r="I293" s="12"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="12"/>
+      <c r="B294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="12"/>
+      <c r="D294" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="12"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="12"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E295" s="1">
+        <v>1</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J295" s="12"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="12"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E296" s="1">
+        <v>2</v>
+      </c>
+      <c r="J296" s="12"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="12"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E297" s="1">
+        <v>3</v>
+      </c>
+      <c r="J297" s="12"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="12"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E298" s="1">
+        <v>3</v>
+      </c>
+      <c r="J298" s="12"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E299" s="1">
+        <v>1</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J299" s="12"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="12"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E300" s="1">
+        <v>2</v>
+      </c>
+      <c r="J300" s="12"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="12"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E301" s="1">
+        <v>2</v>
+      </c>
+      <c r="J301" s="12"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="12"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E302" s="1">
+        <v>2</v>
+      </c>
+      <c r="J302" s="12"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="12"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E303" s="1">
+        <v>3</v>
+      </c>
+      <c r="J303" s="12"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="12"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
+      <c r="G304" s="12"/>
+      <c r="H304" s="12"/>
+      <c r="I304" s="12"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B305" s="10"/>
+      <c r="C305" s="10"/>
+      <c r="D305" s="10"/>
+      <c r="E305" s="10"/>
+      <c r="F305" s="10"/>
+      <c r="G305" s="10"/>
+      <c r="H305" s="10"/>
+      <c r="I305" s="10"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="12"/>
+      <c r="B306" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C306" s="12"/>
+      <c r="D306" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+      <c r="G306" s="12"/>
+      <c r="H306" s="12"/>
+      <c r="I306" s="12"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J307" s="12"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="12"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J308" s="12"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="12"/>
+      <c r="B309" s="12"/>
+      <c r="J309" s="12"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
+      <c r="F310" s="12"/>
+      <c r="G310" s="12"/>
+      <c r="H310" s="12"/>
+      <c r="I310" s="12"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="12"/>
+      <c r="B311" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="12"/>
+      <c r="D311" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="12"/>
+      <c r="I311" s="12"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="12"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J312" s="12"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="12"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J313" s="12"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="12"/>
+      <c r="B314" s="12"/>
+      <c r="J314" s="12"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="12"/>
+      <c r="B315" s="12"/>
+      <c r="J315" s="12"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="12"/>
+      <c r="B316" s="12"/>
+      <c r="J316" s="12"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="12"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
+      <c r="F317" s="12"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="12"/>
+      <c r="I317" s="12"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="12"/>
+      <c r="B318" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" s="12"/>
+      <c r="D318" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="12"/>
+      <c r="I318" s="12"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J319" s="12"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="12"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J320" s="12"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="12"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J321" s="12"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="12"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J322" s="12"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="12"/>
+      <c r="B323" s="12"/>
+      <c r="J323" s="12"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="12"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+      <c r="F324" s="12"/>
+      <c r="G324" s="12"/>
+      <c r="H324" s="12"/>
+      <c r="I324" s="12"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="12"/>
+      <c r="B325" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C325" s="12"/>
+      <c r="D325" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E325" s="12"/>
+      <c r="F325" s="12"/>
+      <c r="G325" s="12"/>
+      <c r="H325" s="12"/>
+      <c r="I325" s="12"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="12"/>
+      <c r="B326" s="12"/>
+      <c r="J326" s="12"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="12"/>
+      <c r="B327" s="12"/>
+      <c r="J327" s="12"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="12"/>
+      <c r="B328" s="12"/>
+      <c r="J328" s="12"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="12"/>
+      <c r="B329" s="12"/>
+      <c r="J329" s="12"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="12"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
+      <c r="F330" s="12"/>
+      <c r="G330" s="12"/>
+      <c r="H330" s="12"/>
+      <c r="I330" s="12"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F331" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G289" s="1">
+      <c r="G331" s="1">
         <v>80</v>
       </c>
-      <c r="H289" s="1" t="s">
+      <c r="H331" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I331" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="I289" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
